--- a/SchedulingData/dynamic11/pso/scheduling1_18.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_18.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.28</v>
+        <v>76.64</v>
       </c>
       <c r="E2" t="n">
-        <v>26.152</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>56.26</v>
+        <v>61.6</v>
       </c>
       <c r="E3" t="n">
-        <v>26.544</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>56.7</v>
+        <v>63.42</v>
       </c>
       <c r="E4" t="n">
-        <v>25.52</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>26.28</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>125.2</v>
+        <v>102.8</v>
       </c>
       <c r="E6" t="n">
-        <v>21.8</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56.7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>105.16</v>
+        <v>82.06</v>
       </c>
       <c r="E7" t="n">
-        <v>22.784</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>76.64</v>
       </c>
       <c r="D8" t="n">
-        <v>98.09999999999999</v>
+        <v>131.94</v>
       </c>
       <c r="E8" t="n">
-        <v>25.84</v>
+        <v>22.616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>98.09999999999999</v>
+        <v>82.06</v>
       </c>
       <c r="D9" t="n">
-        <v>154.9</v>
+        <v>150.36</v>
       </c>
       <c r="E9" t="n">
-        <v>22.76</v>
+        <v>22.224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56.26</v>
+        <v>102.8</v>
       </c>
       <c r="D10" t="n">
-        <v>115.06</v>
+        <v>144.9</v>
       </c>
       <c r="E10" t="n">
-        <v>23.784</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>115.06</v>
+        <v>61.6</v>
       </c>
       <c r="D11" t="n">
-        <v>169.48</v>
+        <v>119.92</v>
       </c>
       <c r="E11" t="n">
-        <v>19.472</v>
+        <v>21.308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>169.48</v>
+        <v>131.94</v>
       </c>
       <c r="D12" t="n">
-        <v>212.08</v>
+        <v>187.44</v>
       </c>
       <c r="E12" t="n">
-        <v>16.832</v>
+        <v>19.196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>55.28</v>
+        <v>144.9</v>
       </c>
       <c r="D13" t="n">
-        <v>96.88</v>
+        <v>212.5</v>
       </c>
       <c r="E13" t="n">
-        <v>22.632</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="14">
@@ -709,21 +709,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125.2</v>
+        <v>63.42</v>
       </c>
       <c r="D15" t="n">
-        <v>178.22</v>
+        <v>125.38</v>
       </c>
       <c r="E15" t="n">
-        <v>18.608</v>
+        <v>22.772</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>154.9</v>
+        <v>187.44</v>
       </c>
       <c r="D16" t="n">
-        <v>214.2</v>
+        <v>223.48</v>
       </c>
       <c r="E16" t="n">
-        <v>17.96</v>
+        <v>16.732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>178.22</v>
+        <v>125.38</v>
       </c>
       <c r="D17" t="n">
-        <v>245.18</v>
+        <v>175.16</v>
       </c>
       <c r="E17" t="n">
-        <v>14.552</v>
+        <v>18.924</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>212.08</v>
+        <v>119.92</v>
       </c>
       <c r="D18" t="n">
-        <v>287.92</v>
+        <v>176.02</v>
       </c>
       <c r="E18" t="n">
-        <v>13.348</v>
+        <v>16.828</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>41.32</v>
       </c>
       <c r="D19" t="n">
-        <v>99.58</v>
+        <v>115.44</v>
       </c>
       <c r="E19" t="n">
-        <v>23.832</v>
+        <v>22.256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>96.88</v>
+        <v>115.44</v>
       </c>
       <c r="D20" t="n">
-        <v>147.18</v>
+        <v>175.02</v>
       </c>
       <c r="E20" t="n">
-        <v>18.732</v>
+        <v>18.408</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>99.58</v>
+        <v>175.02</v>
       </c>
       <c r="D21" t="n">
-        <v>164.26</v>
+        <v>238.62</v>
       </c>
       <c r="E21" t="n">
-        <v>19.984</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>147.18</v>
+        <v>175.16</v>
       </c>
       <c r="D22" t="n">
-        <v>203.94</v>
+        <v>241.02</v>
       </c>
       <c r="E22" t="n">
-        <v>14.676</v>
+        <v>15.468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>214.2</v>
+        <v>150.36</v>
       </c>
       <c r="D23" t="n">
-        <v>307.5</v>
+        <v>196.96</v>
       </c>
       <c r="E23" t="n">
-        <v>13.22</v>
+        <v>18.704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>245.18</v>
+        <v>176.02</v>
       </c>
       <c r="D24" t="n">
-        <v>320.72</v>
+        <v>246.82</v>
       </c>
       <c r="E24" t="n">
-        <v>12.088</v>
+        <v>12.348</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>164.26</v>
+        <v>238.62</v>
       </c>
       <c r="D25" t="n">
-        <v>220.84</v>
+        <v>276.32</v>
       </c>
       <c r="E25" t="n">
-        <v>16.456</v>
+        <v>11.028</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>105.16</v>
+        <v>223.48</v>
       </c>
       <c r="D26" t="n">
-        <v>161.26</v>
+        <v>281.84</v>
       </c>
       <c r="E26" t="n">
-        <v>18.304</v>
+        <v>13.996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>161.26</v>
+        <v>212.5</v>
       </c>
       <c r="D27" t="n">
-        <v>243.56</v>
+        <v>256.5</v>
       </c>
       <c r="E27" t="n">
-        <v>14.664</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>287.92</v>
+        <v>281.84</v>
       </c>
       <c r="D28" t="n">
-        <v>343.4</v>
+        <v>335.5</v>
       </c>
       <c r="E28" t="n">
-        <v>10.4</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>243.56</v>
+        <v>196.96</v>
       </c>
       <c r="D29" t="n">
-        <v>307.08</v>
+        <v>264.98</v>
       </c>
       <c r="E29" t="n">
-        <v>10.452</v>
+        <v>15.512</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>203.94</v>
+        <v>256.5</v>
       </c>
       <c r="D30" t="n">
-        <v>257.06</v>
+        <v>318.08</v>
       </c>
       <c r="E30" t="n">
-        <v>11.504</v>
+        <v>8.032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>307.08</v>
+        <v>246.82</v>
       </c>
       <c r="D31" t="n">
-        <v>347.68</v>
+        <v>307.6</v>
       </c>
       <c r="E31" t="n">
-        <v>7.032</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
